--- a/spreadsheets/new/GSE118127.0.xlsx
+++ b/spreadsheets/new/GSE118127.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078C04F-BFB1-8747-A931-2D9E84EBF7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25140" windowHeight="14280" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1092">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3295,13 +3301,16 @@
   </si>
   <si>
     <t>ovary Follicle 1-2mm</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3338,6 +3347,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3384,7 +3401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3416,9 +3433,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3450,6 +3485,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3625,75 +3678,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="128.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="128.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4051,7 +4100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4209,7 +4258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4388,12 +4437,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4416,7 +4465,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4439,7 +4488,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -4462,7 +4511,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4485,7 +4534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -4508,7 +4557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -4531,7 +4580,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -4554,7 +4603,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -4577,7 +4626,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -4600,7 +4649,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -4623,7 +4672,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -4646,7 +4695,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -4669,7 +4718,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -4692,7 +4741,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -4715,7 +4764,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>279</v>
       </c>
@@ -4738,7 +4787,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -4761,7 +4810,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>289</v>
       </c>
@@ -4781,7 +4830,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -4801,7 +4850,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>297</v>
       </c>
@@ -4821,7 +4870,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -4841,7 +4890,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -4861,7 +4910,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>309</v>
       </c>
@@ -4881,7 +4930,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -4901,7 +4950,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -4921,7 +4970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>321</v>
       </c>
@@ -4941,7 +4990,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>325</v>
       </c>
@@ -4961,7 +5010,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>329</v>
       </c>
@@ -4981,7 +5030,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -5001,7 +5050,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>337</v>
       </c>
@@ -5021,7 +5070,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -5041,7 +5090,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -5067,93 +5116,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>349</v>
       </c>
@@ -5386,7 +5433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5619,7 +5666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5834,7 +5881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>453</v>
       </c>
@@ -6067,12 +6114,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -6086,7 +6133,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>517</v>
       </c>
@@ -6100,7 +6147,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>518</v>
       </c>
@@ -6114,7 +6161,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>519</v>
       </c>
@@ -6128,7 +6175,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>520</v>
       </c>
@@ -6148,67 +6195,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="371.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="371.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>521</v>
       </c>
@@ -6363,7 +6408,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -6518,7 +6563,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -6667,7 +6712,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>622</v>
       </c>
@@ -6822,12 +6867,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>673</v>
       </c>
@@ -6844,25 +6889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1001.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1001.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>676</v>
       </c>
@@ -6891,7 +6935,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -6920,7 +6964,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>694</v>
       </c>
@@ -6949,7 +6993,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>703</v>
       </c>
@@ -6978,12 +7022,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>712</v>
       </c>
@@ -7009,28 +7053,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>718</v>
       </c>
@@ -7068,7 +7112,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>730</v>
       </c>
@@ -7106,7 +7150,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>740</v>
       </c>
@@ -7144,7 +7188,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>751</v>
       </c>
@@ -7182,12 +7226,12 @@
         <v>762</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>763</v>
       </c>
@@ -7207,17 +7251,17 @@
         <v>768</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>771</v>
       </c>
@@ -7228,21 +7272,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>772</v>
       </c>
@@ -7259,7 +7303,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -7276,7 +7320,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>781</v>
       </c>
@@ -7293,7 +7337,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>786</v>
       </c>
@@ -7310,12 +7354,12 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>791</v>
       </c>
@@ -7326,46 +7370,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>792</v>
       </c>
@@ -7457,7 +7499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>804</v>
       </c>
@@ -7549,7 +7591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>813</v>
       </c>
@@ -7629,7 +7671,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>823</v>
       </c>
@@ -7721,12 +7763,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>835</v>
       </c>
@@ -7749,7 +7791,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>840</v>
       </c>
@@ -7772,7 +7814,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>842</v>
       </c>
@@ -7795,7 +7837,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>844</v>
       </c>
@@ -7818,7 +7860,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>845</v>
       </c>
@@ -7841,7 +7883,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>847</v>
       </c>
@@ -7864,7 +7906,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>848</v>
       </c>
@@ -7887,7 +7929,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>850</v>
       </c>
@@ -7910,7 +7952,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>851</v>
       </c>
@@ -7933,7 +7975,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>853</v>
       </c>
@@ -7956,7 +7998,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>854</v>
       </c>
@@ -7979,7 +8021,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>856</v>
       </c>
@@ -8002,7 +8044,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>857</v>
       </c>
@@ -8025,7 +8067,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>859</v>
       </c>
@@ -8048,7 +8090,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>860</v>
       </c>
@@ -8071,7 +8113,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>862</v>
       </c>
@@ -8094,7 +8136,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>863</v>
       </c>
@@ -8117,7 +8159,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>865</v>
       </c>
@@ -8140,7 +8182,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>866</v>
       </c>
@@ -8163,7 +8205,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>868</v>
       </c>
@@ -8186,7 +8228,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>869</v>
       </c>
@@ -8209,7 +8251,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>871</v>
       </c>
@@ -8232,7 +8274,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>872</v>
       </c>
@@ -8255,7 +8297,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>874</v>
       </c>
@@ -8278,7 +8320,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>875</v>
       </c>
@@ -8301,7 +8343,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>877</v>
       </c>
@@ -8324,7 +8366,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>878</v>
       </c>
@@ -8347,7 +8389,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>880</v>
       </c>
@@ -8370,7 +8412,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>881</v>
       </c>
@@ -8393,7 +8435,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>883</v>
       </c>
@@ -8416,7 +8458,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>884</v>
       </c>
@@ -8439,7 +8481,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>886</v>
       </c>
@@ -8462,7 +8504,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>887</v>
       </c>
@@ -8485,7 +8527,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>889</v>
       </c>
@@ -8508,7 +8550,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>890</v>
       </c>
@@ -8531,7 +8573,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>892</v>
       </c>
@@ -8554,7 +8596,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>893</v>
       </c>
@@ -8577,7 +8619,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>895</v>
       </c>
@@ -8600,7 +8642,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>896</v>
       </c>
@@ -8623,7 +8665,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>898</v>
       </c>
@@ -8646,7 +8688,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>899</v>
       </c>
@@ -8669,7 +8711,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>901</v>
       </c>
@@ -8692,7 +8734,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>902</v>
       </c>
@@ -8715,7 +8757,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>904</v>
       </c>
@@ -8738,7 +8780,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>905</v>
       </c>
@@ -8761,7 +8803,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>907</v>
       </c>
@@ -8784,7 +8826,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>908</v>
       </c>
@@ -8807,7 +8849,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>910</v>
       </c>
@@ -8830,7 +8872,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>911</v>
       </c>
@@ -8853,7 +8895,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>913</v>
       </c>
@@ -8876,7 +8918,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>914</v>
       </c>
@@ -8899,7 +8941,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>916</v>
       </c>
@@ -8922,7 +8964,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>917</v>
       </c>
@@ -8945,7 +8987,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>919</v>
       </c>
@@ -8968,7 +9010,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>920</v>
       </c>
@@ -8991,7 +9033,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>922</v>
       </c>
@@ -9014,7 +9056,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>923</v>
       </c>
@@ -9037,7 +9079,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>925</v>
       </c>
@@ -9060,7 +9102,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>926</v>
       </c>
@@ -9083,7 +9125,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>928</v>
       </c>
@@ -9106,7 +9148,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>929</v>
       </c>
@@ -9129,7 +9171,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>931</v>
       </c>
@@ -9158,34 +9200,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="157.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="157.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>803</v>
       </c>
@@ -9241,7 +9285,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9297,7 +9341,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -9347,7 +9391,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>834</v>
       </c>
@@ -9403,12 +9447,12 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>839</v>
       </c>
@@ -9417,6 +9461,9 @@
       </c>
       <c r="G6" t="s">
         <v>979</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -9425,76 +9472,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -9676,7 +9720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -9858,7 +9902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -10019,7 +10063,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -10201,12 +10245,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -10229,7 +10273,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -10252,7 +10296,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -10275,7 +10319,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -10298,7 +10342,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -10321,7 +10365,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>238</v>
       </c>
@@ -10344,7 +10388,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
@@ -10367,7 +10411,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -10390,7 +10434,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -10413,7 +10457,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -10436,7 +10480,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -10459,7 +10503,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -10482,7 +10526,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -10505,7 +10549,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>278</v>
       </c>
@@ -10528,7 +10572,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -10551,7 +10595,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>288</v>
       </c>
@@ -10574,7 +10618,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -10597,7 +10641,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>296</v>
       </c>
@@ -10620,7 +10664,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -10643,7 +10687,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>304</v>
       </c>
@@ -10666,7 +10710,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -10689,7 +10733,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>312</v>
       </c>
@@ -10712,7 +10756,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -10735,7 +10779,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>320</v>
       </c>
@@ -10758,7 +10802,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -10781,7 +10825,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>328</v>
       </c>
@@ -10804,7 +10848,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -10827,7 +10871,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>336</v>
       </c>
@@ -10850,7 +10894,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>340</v>
       </c>
@@ -10873,7 +10917,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>344</v>
       </c>
@@ -10896,7 +10940,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>348</v>
       </c>
